--- a/MutiSent.xlsx
+++ b/MutiSent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>To</t>
   </si>
@@ -37,6 +37,45 @@
   </si>
   <si>
     <t>tpsumeta@gmail.com</t>
+  </si>
+  <si>
+    <t>shopdlk147@gmail.com</t>
+  </si>
+  <si>
+    <t>jeep.se@gmail.com</t>
+  </si>
+  <si>
+    <t>jeep.for.de@gmail.com</t>
+  </si>
+  <si>
+    <t>chinnawat.d@iconext.co.th</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>Chinnawat</t>
+  </si>
+  <si>
+    <t>Shopdlk147</t>
+  </si>
+  <si>
+    <t>Jeep2</t>
+  </si>
+  <si>
+    <t>Chinnawat2</t>
+  </si>
+  <si>
+    <t>Jeepfor</t>
+  </si>
+  <si>
+    <t>Jeepfor2</t>
+  </si>
+  <si>
+    <t>Shopdlk1472</t>
+  </si>
+  <si>
+    <t>Sumeta2</t>
   </si>
 </sst>
 </file>
@@ -81,9 +120,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -399,9 +441,88 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
